--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,27 @@
   </si>
   <si>
     <t>CA-PQ3R9NMD</t>
+  </si>
+  <si>
+    <t>CA-ULJZ6R39</t>
+  </si>
+  <si>
+    <t>CA-BSCXQNUS</t>
+  </si>
+  <si>
+    <t>CA-A2JVHZJQ</t>
+  </si>
+  <si>
+    <t>CA-0ZQMQRYY</t>
+  </si>
+  <si>
+    <t>CA-LAZWE1BF</t>
+  </si>
+  <si>
+    <t>CA-T1K15L9H</t>
+  </si>
+  <si>
+    <t>CA-HU5809FQ</t>
   </si>
 </sst>
 </file>
@@ -600,7 +621,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>CA-HU5809FQ</t>
+  </si>
+  <si>
+    <t>CA-57C6944H</t>
+  </si>
+  <si>
+    <t>CA-Z3OS33Q1</t>
+  </si>
+  <si>
+    <t>CA-1IUL249U</t>
+  </si>
+  <si>
+    <t>CA-JMX7KUT5</t>
   </si>
 </sst>
 </file>
@@ -621,7 +633,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>CA-JMX7KUT5</t>
+  </si>
+  <si>
+    <t>CA-CFL8QBR1</t>
+  </si>
+  <si>
+    <t>CA-GVICCQYW</t>
+  </si>
+  <si>
+    <t>CA-5AP3FZP5</t>
   </si>
 </sst>
 </file>
@@ -633,7 +642,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -218,6 +218,24 @@
   </si>
   <si>
     <t>CA-5AP3FZP5</t>
+  </si>
+  <si>
+    <t>CA-QR6P40J3</t>
+  </si>
+  <si>
+    <t>CA-MO5G8PNC</t>
+  </si>
+  <si>
+    <t>CA-MVJZXU02</t>
+  </si>
+  <si>
+    <t>CA-EQFAECKV</t>
+  </si>
+  <si>
+    <t>CA-SX2WC23N</t>
+  </si>
+  <si>
+    <t>CA-JSL2PLO9</t>
   </si>
 </sst>
 </file>
@@ -642,7 +660,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -236,6 +236,54 @@
   </si>
   <si>
     <t>CA-JSL2PLO9</t>
+  </si>
+  <si>
+    <t>CA-VECPZNLP</t>
+  </si>
+  <si>
+    <t>CA-B9GO4QUU</t>
+  </si>
+  <si>
+    <t>CA-DLGFW4R9</t>
+  </si>
+  <si>
+    <t>CA-9FDC3TRR</t>
+  </si>
+  <si>
+    <t>CA-GD9XJSBU</t>
+  </si>
+  <si>
+    <t>CA-EN5EHWC7</t>
+  </si>
+  <si>
+    <t>CA-WRF48NRL</t>
+  </si>
+  <si>
+    <t>CA-WF93GM8C</t>
+  </si>
+  <si>
+    <t>CA-N8MAXR22</t>
+  </si>
+  <si>
+    <t>CA-BZPFVY0U</t>
+  </si>
+  <si>
+    <t>CA-XXEQDJ5W</t>
+  </si>
+  <si>
+    <t>CA-RUPWR4QT</t>
+  </si>
+  <si>
+    <t>CA-GKZUDERM</t>
+  </si>
+  <si>
+    <t>CA-AYSZ9X2U</t>
+  </si>
+  <si>
+    <t>CA-2AFQLZ7F</t>
+  </si>
+  <si>
+    <t>CA-VW9AU32O</t>
   </si>
 </sst>
 </file>
@@ -660,7 +708,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -284,6 +284,324 @@
   </si>
   <si>
     <t>CA-VW9AU32O</t>
+  </si>
+  <si>
+    <t>CA-NQJU1RMG</t>
+  </si>
+  <si>
+    <t>CA-1UELHXAQ</t>
+  </si>
+  <si>
+    <t>CA-KW26YHHV</t>
+  </si>
+  <si>
+    <t>CA-A29PAFHT</t>
+  </si>
+  <si>
+    <t>CA-Y4Q08402</t>
+  </si>
+  <si>
+    <t>CA-B51PFURQ</t>
+  </si>
+  <si>
+    <t>CA-FODP49GI</t>
+  </si>
+  <si>
+    <t>CA-3CWZ92C5</t>
+  </si>
+  <si>
+    <t>CA-274PMUGW</t>
+  </si>
+  <si>
+    <t>CA-KK7A2LWZ</t>
+  </si>
+  <si>
+    <t>CA-VQH4DFHA</t>
+  </si>
+  <si>
+    <t>CA-0VE86TI6</t>
+  </si>
+  <si>
+    <t>CA-KCLKU4MM</t>
+  </si>
+  <si>
+    <t>CA-ED41OOZZ</t>
+  </si>
+  <si>
+    <t>CA-YMA5CNNF</t>
+  </si>
+  <si>
+    <t>CA-QFHJ7FSE</t>
+  </si>
+  <si>
+    <t>CA-28D54585</t>
+  </si>
+  <si>
+    <t>CA-0ER0IWTO</t>
+  </si>
+  <si>
+    <t>CA-0NTN2DQZ</t>
+  </si>
+  <si>
+    <t>CA-2HI7UE82</t>
+  </si>
+  <si>
+    <t>CA-JG2ESPBA</t>
+  </si>
+  <si>
+    <t>CA-8ELYA7R2</t>
+  </si>
+  <si>
+    <t>CA-O535BPGN</t>
+  </si>
+  <si>
+    <t>CA-TG6U7N6F</t>
+  </si>
+  <si>
+    <t>CA-17P95A8S</t>
+  </si>
+  <si>
+    <t>CA-J7KQ4YPV</t>
+  </si>
+  <si>
+    <t>CA-NMJSVXR9</t>
+  </si>
+  <si>
+    <t>CA-FAB55BBK</t>
+  </si>
+  <si>
+    <t>CA-VPG79CA3</t>
+  </si>
+  <si>
+    <t>CA-VLKW5XLT</t>
+  </si>
+  <si>
+    <t>CA-QTMRGYUX</t>
+  </si>
+  <si>
+    <t>CA-S2VF5ET2</t>
+  </si>
+  <si>
+    <t>CA-UAT08R8W</t>
+  </si>
+  <si>
+    <t>CA-D3SZP67V</t>
+  </si>
+  <si>
+    <t>CA-7ICEYOVP</t>
+  </si>
+  <si>
+    <t>CA-8AI6BC3U</t>
+  </si>
+  <si>
+    <t>CA-B2FLLABO</t>
+  </si>
+  <si>
+    <t>CA-VUNLGY77</t>
+  </si>
+  <si>
+    <t>CA-LGEXUCA7</t>
+  </si>
+  <si>
+    <t>CA-0YUE5IGI</t>
+  </si>
+  <si>
+    <t>CA-E5IY9OZH</t>
+  </si>
+  <si>
+    <t>CA-QB7H5JXO</t>
+  </si>
+  <si>
+    <t>CA-S7M4UCS4</t>
+  </si>
+  <si>
+    <t>CA-WJEY6GS5</t>
+  </si>
+  <si>
+    <t>CA-24MLVREW</t>
+  </si>
+  <si>
+    <t>CA-AAG0D95S</t>
+  </si>
+  <si>
+    <t>CA-7TBCBTJ7</t>
+  </si>
+  <si>
+    <t>CA-EGBPYWVK</t>
+  </si>
+  <si>
+    <t>CA-KSNCP35G</t>
+  </si>
+  <si>
+    <t>CA-NGKPDVK5</t>
+  </si>
+  <si>
+    <t>CA-GGMGK687</t>
+  </si>
+  <si>
+    <t>CA-6LYXIXWM</t>
+  </si>
+  <si>
+    <t>CA-QTWXMC1A</t>
+  </si>
+  <si>
+    <t>CA-EAHP6WJA</t>
+  </si>
+  <si>
+    <t>CA-FD0IUGO0</t>
+  </si>
+  <si>
+    <t>CA-6UDCXA97</t>
+  </si>
+  <si>
+    <t>CA-357J2E31</t>
+  </si>
+  <si>
+    <t>CA-KOPR9AM4</t>
+  </si>
+  <si>
+    <t>CA-L9DIPHPF</t>
+  </si>
+  <si>
+    <t>CA-1B3LZI21</t>
+  </si>
+  <si>
+    <t>CA-R5JHDY5Z</t>
+  </si>
+  <si>
+    <t>CA-2JKFZTFB</t>
+  </si>
+  <si>
+    <t>CA-5HE56SKA</t>
+  </si>
+  <si>
+    <t>CA-3LNV1R7E</t>
+  </si>
+  <si>
+    <t>CA-J2KXOR24</t>
+  </si>
+  <si>
+    <t>CA-PZP6VMMZ</t>
+  </si>
+  <si>
+    <t>CA-Q1IS3NZP</t>
+  </si>
+  <si>
+    <t>CA-GGDGKZDO</t>
+  </si>
+  <si>
+    <t>CA-W3ZTRFTD</t>
+  </si>
+  <si>
+    <t>CA-8Y6IP39E</t>
+  </si>
+  <si>
+    <t>CA-24SEPVVN</t>
+  </si>
+  <si>
+    <t>CA-C4IWCJCC</t>
+  </si>
+  <si>
+    <t>CA-7LEKX6ZX</t>
+  </si>
+  <si>
+    <t>CA-1ZVUFWYZ</t>
+  </si>
+  <si>
+    <t>CA-3MUD9GMC</t>
+  </si>
+  <si>
+    <t>CA-0AJFQLH5</t>
+  </si>
+  <si>
+    <t>CA-C9WUIYUA</t>
+  </si>
+  <si>
+    <t>CA-ASYM8YD6</t>
+  </si>
+  <si>
+    <t>CA-LAE66A62</t>
+  </si>
+  <si>
+    <t>CA-EHRIE9M0</t>
+  </si>
+  <si>
+    <t>CA-BPWMQBHV</t>
+  </si>
+  <si>
+    <t>CA-31GJ03O5</t>
+  </si>
+  <si>
+    <t>CA-G49ASK3W</t>
+  </si>
+  <si>
+    <t>CA-P0LM4NKZ</t>
+  </si>
+  <si>
+    <t>CA-ZBFOF6Y4</t>
+  </si>
+  <si>
+    <t>CA-ER5BXSA7</t>
+  </si>
+  <si>
+    <t>CA-VUM5L5X0</t>
+  </si>
+  <si>
+    <t>CA-V80RUWPT</t>
+  </si>
+  <si>
+    <t>CA-AWWYQ5HM</t>
+  </si>
+  <si>
+    <t>CA-UN1HO3XV</t>
+  </si>
+  <si>
+    <t>CA-YVJKHQ47</t>
+  </si>
+  <si>
+    <t>CA-QYJ6UT59</t>
+  </si>
+  <si>
+    <t>CA-T49Y6X2K</t>
+  </si>
+  <si>
+    <t>CA-3KBGN2JX</t>
+  </si>
+  <si>
+    <t>CA-EXRYT6KO</t>
+  </si>
+  <si>
+    <t>CA-8XGJ5B3E</t>
+  </si>
+  <si>
+    <t>CA-9XD7XMOQ</t>
+  </si>
+  <si>
+    <t>CA-O5IBJLGS</t>
+  </si>
+  <si>
+    <t>CA-Q5UVSVNY</t>
+  </si>
+  <si>
+    <t>CA-9BWVX68N</t>
+  </si>
+  <si>
+    <t>CA-UJHWYCTP</t>
+  </si>
+  <si>
+    <t>CA-JWY4RRPX</t>
+  </si>
+  <si>
+    <t>CA-TTES615O</t>
+  </si>
+  <si>
+    <t>CA-8HUVDMJ2</t>
+  </si>
+  <si>
+    <t>CA-V30Y8JF5</t>
+  </si>
+  <si>
+    <t>CA-KDZKMTO8</t>
   </si>
 </sst>
 </file>
@@ -708,7 +1026,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="200">
   <si>
     <t>id</t>
   </si>
@@ -602,6 +602,30 @@
   </si>
   <si>
     <t>CA-KDZKMTO8</t>
+  </si>
+  <si>
+    <t>CA-ESP9MEVO</t>
+  </si>
+  <si>
+    <t>CA-HM7BFJK9</t>
+  </si>
+  <si>
+    <t>CA-ASTM7W1T</t>
+  </si>
+  <si>
+    <t>CA-7WC8DBSI</t>
+  </si>
+  <si>
+    <t>CA-ABOL4BN8</t>
+  </si>
+  <si>
+    <t>CA-X3DUHCV6</t>
+  </si>
+  <si>
+    <t>CA-MXF89URQ</t>
+  </si>
+  <si>
+    <t>CA-C4ENCTM5</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1050,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/src/test/resources/Genetics.xlsx
+++ b/src/test/resources/Genetics.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="233">
   <si>
     <t>id</t>
   </si>
@@ -626,6 +626,105 @@
   </si>
   <si>
     <t>CA-C4ENCTM5</t>
+  </si>
+  <si>
+    <t>CA-DGY7TBQT</t>
+  </si>
+  <si>
+    <t>CA-L67KFN92</t>
+  </si>
+  <si>
+    <t>CA-VGZYIC1F</t>
+  </si>
+  <si>
+    <t>CA-BP5SQV3N</t>
+  </si>
+  <si>
+    <t>CA-XHLFG356</t>
+  </si>
+  <si>
+    <t>CA-NM5MMCTS</t>
+  </si>
+  <si>
+    <t>CA-IR3DEROF</t>
+  </si>
+  <si>
+    <t>CA-05C4B9XO</t>
+  </si>
+  <si>
+    <t>CA-E47GDQ3S</t>
+  </si>
+  <si>
+    <t>CA-EZG1CL4Y</t>
+  </si>
+  <si>
+    <t>CA-BMPI7E4Z</t>
+  </si>
+  <si>
+    <t>CA-GNDWV523</t>
+  </si>
+  <si>
+    <t>CA-Z8IS68NQ</t>
+  </si>
+  <si>
+    <t>CA-CWJB8WCJ</t>
+  </si>
+  <si>
+    <t>CA-HPMPCA3A</t>
+  </si>
+  <si>
+    <t>CA-P4S70DL6</t>
+  </si>
+  <si>
+    <t>CA-9PSA5UUI</t>
+  </si>
+  <si>
+    <t>CA-EE7J2LBD</t>
+  </si>
+  <si>
+    <t>CA-2TUGL3MW</t>
+  </si>
+  <si>
+    <t>CA-LSLC7SO4</t>
+  </si>
+  <si>
+    <t>CA-TBEB27H3</t>
+  </si>
+  <si>
+    <t>CA-BV4DBYNK</t>
+  </si>
+  <si>
+    <t>CA-32M2VM68</t>
+  </si>
+  <si>
+    <t>CA-36SAGAW1</t>
+  </si>
+  <si>
+    <t>CA-5Q2L9UB6</t>
+  </si>
+  <si>
+    <t>CA-66Q40L5H</t>
+  </si>
+  <si>
+    <t>CA-FVCPV7Z6</t>
+  </si>
+  <si>
+    <t>CA-94RV63V0</t>
+  </si>
+  <si>
+    <t>CA-F1DFS69H</t>
+  </si>
+  <si>
+    <t>CA-7S0WFUST</t>
+  </si>
+  <si>
+    <t>CA-ASYY2BPD</t>
+  </si>
+  <si>
+    <t>CA-VZM6NS56</t>
+  </si>
+  <si>
+    <t>CA-QLRKYYO0</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1149,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
